--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/35_Gümüşhane_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/35_Gümüşhane_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19179D8E-B226-45E1-821A-D402DDBDB4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7E6CA2D-361F-457B-AE98-20FF82E1BAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54428F67-25AF-482C-8BA5-BAAF88FCE0AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E62066C7-8DF2-4579-8B8D-E4C30527BBBD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{6A18DA69-53D7-44E0-A391-B27834879B01}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{F3595620-70E8-4486-89F6-FF40E2977FFC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{BEC9B154-7DD5-4EC5-9A99-39C391CC82E0}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{04AE0B6B-C6E5-4EA0-A01C-2460EC9DECBB}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{69AA14D7-EF8E-421C-93AC-7926086AA42A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{C0578242-5481-4A6C-89A2-E9F7CDB05331}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{81913472-6735-40AB-ACD0-84B5471B5DCD}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{472A2007-303E-4D57-ABCF-F8FEABF5E8D6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B16C946-C908-4D39-943D-90BFC46D58E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD41ED92-A4D3-4D63-A84E-232AAB05D260}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2425,18 +2425,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{41887999-3730-48A1-851C-F51AAFBADD9E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{529E6AC1-99A2-4AE4-A1A7-956D51E9F0AB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{284B0016-FBC7-4D37-831F-85D10D74974A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{04AD26EA-75C2-4BC2-AF16-ED6CCA71CEAC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{24554DBC-D2EB-4099-83D4-B9D3B9F90DAB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{04CDFBF0-097C-4271-BC4D-D61CBD793F73}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CE712135-BE26-46B0-A128-0D9C8D7382C9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3208E653-59CC-47F7-BBC0-1AD9786D431E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7D2367C9-0142-439E-8CE9-8A9BCBE4CD7C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D41FFC20-C208-44D4-8735-8ADA50C1FD06}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{97C9DE6B-22EE-4D5C-8299-A960A1163D8F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5F7814B9-D013-4530-ACFC-938B9BAE356B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BEB15570-9F7A-4E16-9429-B781C7220350}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4C6A8800-650B-4901-A1FF-68D16FEABA5F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AEC5D8DE-0810-4B61-B627-86111A5425E9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B235B41F-430B-49CD-B11B-07D58325D058}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4A92B771-0333-410F-BC82-8E0FF55E2A29}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{33E07364-3D1A-4A8E-92B1-D25894E7372F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{79156B3F-DE70-48FF-980E-5177EE62D1A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2DE95BCB-13B3-4B67-940B-21902161DF7E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5C96A7D6-55B7-4A13-8BDD-7273713819EE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F4023AB2-7C72-43DD-A20B-FC51E0CBD2E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D15625C2-E400-428A-A158-DBB513D69D5B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4D9008EB-F0B4-4187-8052-52F8550B891E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2449,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A57B106-441C-4FED-A1FA-900A065B730B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFBB1FE-3673-4E6F-8499-35065B2C765B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3608,18 +3608,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8DC745B8-819F-45BB-8EE4-73EECAFBE18F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EF26307C-B0D2-4770-B588-B945019C7321}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7F25835E-91F9-423C-BE17-B221BD46F3A0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4B769AD6-E81B-4C84-A2F7-68FEBCEEF70F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{129D208D-5947-4E26-9011-D3C610E9EAB3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9D8BBBBC-03D5-40EF-ACF4-26892291E6FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{14917F1F-0899-40B9-9500-2C067D05DE82}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F4667E46-2149-484E-9765-A7008AF34888}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{883BE577-0DE5-4269-84C9-8F6C67A1E85C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ECAC87E0-9A05-4895-ACE4-8EE8ECBD4A48}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{60F88BB4-CE67-48A5-9E97-66DED8F6EE6A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{786B1311-4240-4F10-94B0-3837040AFE03}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D46CEBEF-846E-4099-ABCB-1DBAD38002A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D0735D10-658D-47FE-BCF9-B8D3728350CB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C1A0A780-D11B-45F9-BAFB-2A4D241BA5C0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{24903660-1498-40CD-B7BB-A945D73969F4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{87753ADC-C118-476D-8A5B-A4ADF5045984}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EA7701C6-E116-4D39-B9C4-338B87B8C3F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{838860F8-50B5-42D7-B5EE-FA5761B94214}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A538EC28-802F-4C4B-81E2-90DDBDC10802}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2D3251B2-2FF0-492D-A119-F126EED1396D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{32D741D0-8047-4A3C-B6D9-9D06CCB4BA42}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{756AB037-C6F6-4514-B808-8AD16B464C35}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0279095C-9FED-4CCE-87C2-450437753B94}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3632,7 +3632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1024BFB7-5209-4447-8234-3F48579F2663}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D42CFD3-25FC-4386-8E41-4E7120FD9F10}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4791,18 +4791,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B5E95082-94F2-4D2F-B262-2EE1FFE76032}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{639B9B10-8595-4C62-970D-0BBC8346F01D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AAEEF45C-0103-4C24-84C0-BA66A9972733}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{33E13C29-EACB-4623-9DEF-2EB0E4A32018}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DE6A322C-419A-47EB-8213-F51840695D8A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6BA6C200-5BB0-4AE7-9F87-1AF6973167CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{291D4655-24B4-474B-B911-D198BAB67FBA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B80AF2D9-AAD9-4141-A9BB-B956213193D8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3BE6F93F-54AC-47D3-9023-AEFDE9AD3C5C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9EB94858-4CA5-47E9-B7BB-DF715CBFD56A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B5ADF7C7-ECA8-464E-99F2-1373D5112D90}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2B8B9EB3-DAE8-418E-853E-EE7FFE8F6714}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CACAC74C-19F0-459A-A694-7F2022CDB505}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5BD7F8D3-4BBE-4499-8EDF-377E2B5B79C2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DB253658-E495-4B70-A8B2-5C4AAAE3BA5C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6BD57119-0AA5-4E0E-AD01-967DB35A4933}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E91E47E8-E262-4435-8D66-E15D17A9BD27}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BD2CF051-4751-4C35-B88D-027668BDFD65}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5CBF6D32-DF6E-438B-9C31-1E40D721D5C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7C2CF7D2-FB79-4FAE-A3FB-59C8A761CB62}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3CAE308D-95DB-41B5-9DEC-665FC9FBB28A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{313B6530-3E8F-450F-9A99-C3B109793A4B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1593F878-5231-4086-BB38-A36F2964BAB5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{51608415-C4BD-4343-8C10-F20590A12E71}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4815,7 +4815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B844C73-2D05-46F8-8012-654E79F13A58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555FD8C2-C2AF-4C9B-82C0-1B067A690FF7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5972,18 +5972,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9BA10F2A-9687-46CB-B8B9-3661094034C2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6C8DAB5E-7797-481E-84AB-2B8D63AD800F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EE5106B8-41DD-41F1-BC3C-B72790F34003}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D44D7202-0392-40C6-8DF1-84B11DAAA3F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B3502F2F-817A-4C0E-8D52-3136AD4B33E4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5BAEFF51-A04A-4546-820B-98B8114BB7DD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8FE378EE-8CCB-4331-8033-60AE89108D60}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F7497063-E936-45E6-9142-210105408143}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F6A2FEAE-F305-4698-96C2-6CDCAB2F19EC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1FA18FCD-AB73-4300-9B4E-68DAB776FED0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9E93B62A-19C4-44E9-B349-DDCF8526B72E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0502074B-B441-4AA2-9B2F-21B3D2454F6B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{74F3251F-81FC-4357-BEED-753C90700AFB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DCEC1596-D7C5-457D-95A7-2165965F7004}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ED58306B-A6C1-4B96-B15F-342A9F20A9E5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1C57B1AA-F4A1-46E7-8A4D-6017550704BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BC6E2E05-B7E3-4704-9D9B-334A6808F559}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{91B3D091-F5B0-4A12-8277-D2A7C8A36E65}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1F2D60A2-E54A-43A6-B613-2613519C479C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{418C8FF5-694F-47D7-B55B-056E07A6D9B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{94A391C2-DC35-49DA-8068-2DB00C450F44}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2E0D191C-1128-4014-A6B3-4ADDA7877ABA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7EEB2C5B-1076-4BF5-AB56-B79BFA2B967C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6073AA3E-36B4-4190-9B2E-CFB7422ED517}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5996,7 +5996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EE040E-525F-4CB5-A567-9DB72C175686}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060152C9-8936-4D43-8707-95BA32ED782D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7187,18 +7187,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{17B91681-16D2-453B-9FA1-C6A7A5028D55}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9D297865-2C32-4459-90FD-187B1366103D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F5DA19FF-064E-4FB3-9F6D-5D1E32EAF35A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{734A34BE-8422-4565-BF33-987F0DDF3062}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{152DAF68-52C1-47F5-AFFC-F2E2262279C2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3D2EA47F-043D-4CF5-A0D4-E372905D8C4C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7855F494-2FF2-4DF9-879A-22365A72344F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B963B9EF-6572-4DFF-96FA-2ECF1AF59162}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{76E1AFB5-E604-4911-AEAB-3730B142CEE2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{95D4C57F-52F9-4637-98B7-CDBBE9EDE4C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9D2EC12C-2507-490E-A8A5-A23C06CA8FFF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7BD64F1E-6F95-4D5D-AA3B-6FBD552198FF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{95885B36-B728-44B8-9502-0B40A2394666}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7326DFD6-4CCC-48B2-A1D8-E2106DE2F292}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8CF8FD72-2673-4E16-9781-4EAB3710728D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{688A6F2D-67AC-4701-82B2-BDB6BF4BE077}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BE32FC36-BD87-455E-A2C0-112191BCB849}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C0A7B5E7-F2F0-4EEB-8BB8-16583B90D3B3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{51074F06-BFD1-4775-A552-D868872E2818}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1972B5E3-CCD6-4D6E-9D25-B7A9458B1433}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{95C5BFE7-B1FE-4AE3-AB4E-C20F35DF78AA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4088720D-E711-473C-AB9D-8836486C4CED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D0284A9C-DBD0-4A79-AD4F-700C7BAFDB1E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{54299A8F-104D-4FC6-8D67-3D4B4DC22C22}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7211,7 +7211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB867D4-EA8A-4E23-B97A-E8BDF9A094A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D4F93B-542F-42DF-A5DA-2095D501D729}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8400,18 +8400,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{681C2AE4-7D1C-442D-840F-F0C2E51F82E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B32AF4F8-D594-4144-B04D-4D6BA1E0283C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4BD1A1A0-2BC3-467C-B78F-96D40ED864F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{57275EB0-6907-4F38-93B9-6419D44F1D02}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{678F29F2-7EF2-4C34-AC48-A6F99E9B2001}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{79DAF51F-6A71-4156-8DDB-B5A2229A92B9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DC968FFC-9152-4E99-94EC-004540690845}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8F55761D-7C35-4A31-9A17-6D6AF2B6BBB0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F5202720-F7F3-4D4F-8D5D-ACFF1DC20385}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FB7DB2FB-376B-431C-ADCE-47828307DC1B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A06E81A2-8914-4020-9696-1FC145858765}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{21070475-BED7-4B45-A52E-078ACF6DBE22}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E0A36E2B-3960-429F-935E-A7161C37BB53}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EA7CF82D-C202-4DBE-A73E-C8B2DAD6D895}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{34B722ED-F829-43BB-AECD-BA8D41B75E74}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C823F0C1-B564-4A87-90C0-D62C78D24C90}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1E1412A4-F4B8-4F6B-94FD-4A6F9A36C4AA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FB307B93-52FA-481A-B893-850854FBFB15}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E70D2F1D-FBB8-499F-8498-C7ABA0A69C7E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6598DC83-F225-4926-892D-A2813F8806C2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F0919B76-BD2D-43D3-A2DA-52045B5A5BCA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{07A45268-1548-44DB-B261-CDBF6B3C4423}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{75DD1679-25EF-4E12-B31B-82122E33ABC0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C8090A47-2F8E-4C0F-8457-79E6CBAB24E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8424,7 +8424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C809C1C-62CD-41FC-8A4A-8A997E37CFED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF1102D-B1F0-4849-A0E8-FEAE5D27C024}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9605,18 +9605,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1990A435-9B49-4CDC-A75B-7EDD1B50105C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5BEAB10E-0B15-41D1-B173-D55D24280739}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D58A9AB4-15C5-43EB-A825-5C9D70252D51}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D7ADEABB-DB58-429A-8AD8-84948E680760}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3055F08B-CC9E-4072-B83C-F08DE85C6226}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{93C6F98C-68A2-4CA6-BA57-47CA98C5C6E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{98706306-D922-415A-9F8E-FA13D849E8E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{88042052-6E65-4DEE-B7C5-764F5959F5C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D91DBE3F-6B83-4BC8-8397-97C2E04792BC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0B4A7E70-77BB-48C3-8417-A21B6106C5C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0636C483-3120-4C29-99E3-9BF0EE6C19F3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0A44F049-53CD-4590-8019-10ABD0B72C7C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E0AD1022-33A3-4859-BF3B-A617C9934EE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{848AFCAD-F2EE-4273-A883-8C71AAE0ADC9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B7861CAE-047A-4C4C-8A7F-0783231F6381}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F1F3FCF6-10A7-4F79-B318-B6253AB6C911}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F19101EF-E824-49FB-A5D6-2E2CCCECFC8B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3002E9C6-BEC8-4E05-BFC6-DBCABDFAED4F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E2791D82-3BA1-499E-A886-F10D432FD558}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{51E5725A-1972-4B30-B737-19794D15774D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{69830F83-D53E-47D4-909F-EBADC4146EA1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{66970D64-6041-4F2B-B33F-9391324BFCD8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D9E1119C-BB91-456F-9955-BE9B07973CC3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E118E5FA-5BBF-4BBC-B01F-807124D3BBB4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9629,7 +9629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3E8999-13BA-4153-8133-4A8F20ADC2B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44B016B-BFE4-4945-92C3-E03E2CB06272}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10808,18 +10808,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9C5045A7-56C7-4D15-AC4A-2A7039231527}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B7A20620-DEEE-4FB7-BACA-967D4D191A41}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{76726624-0532-4EE3-8F3E-5A77011ED175}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8607B36F-43E0-4F2F-937D-1B4012B0A36B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{98EF9A79-9AD2-4450-8AE4-0978C32F9CBD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FDBE39E9-5128-4D4E-AF3D-1E2378443528}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6EB6066A-C821-4187-B500-B5BCA7E2A8ED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6D489EB0-23EF-4D96-B3AB-1CBE01B6CE37}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{064A092E-EA77-49F3-B05D-AB4A5C9518C5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F3EBB876-D8DD-485A-92F4-24AF7A49A1CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F337335A-2638-4268-8A84-47A556F9B05B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FB2F8F75-1980-4EC6-B15F-7838D6264FE0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8C4A3BC5-8C80-4C0C-BC13-01F6F8CF4AA2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E52ED8FA-063E-425C-AA5C-E3DAA88B19F3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{377045D0-7699-4915-B254-FE22ED1FAFC2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{617C6B45-DDB7-42D6-9300-E21CC580E429}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FAF3657F-E2AE-4089-8EB8-DD26ACB1CF54}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8A507056-34A5-4E64-924F-F75655306FB3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F28A1057-6AA7-4EB5-AE19-02804CA7546F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3F1D035A-CB55-490D-8319-2DF8DFA977CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D56AD427-B7E5-473B-BB8B-273BF428D3ED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{34DA25D8-04A8-45E3-AFD4-D2651A08B9D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BA7F005B-0A8B-4AF8-B58B-7019291D687C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{92F87AD0-8AC7-42AB-8347-BFF939E3AEFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10832,7 +10832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370B0F8A-476C-4A69-9792-23D4B7CE5815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996C69CB-73CD-4B4F-B86C-1FCC8E40167B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12017,18 +12017,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{55682982-7E34-451F-A58C-55383E1F41FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{079409A1-A74E-453E-A404-83B493596249}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{182F82D7-3E75-4CB0-99FE-A83FB697DBFC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DE7C3B1E-A962-48D1-8F88-DBD430185B9E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{76546527-D86C-48F1-86EE-D2A01F43C1A9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BBE4D5DD-1ADA-49BC-9B4C-3979DA16B9C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2646095E-E8EF-4CA3-A217-D7055B2ABE9A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{767CE1EC-053F-46F5-884E-37A3F68DDA78}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3211DCC6-EB96-4206-B44D-D9017DA3C145}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{777F0ED8-8506-49E2-A5AB-07153E03CB37}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{268B22DF-EBC3-4B21-A0D7-2FAF5E471806}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2EA5E64C-5571-4EF7-8AF9-8429EA66AD9E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{48BCE7B1-6919-4C19-9930-C6426538C734}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A5D23AB6-8C7C-475D-BB24-662373FEE99C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EA24D274-78F4-436D-AFE7-79975AC76D9C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DCE55C75-C359-439B-94C7-65B6E54ECE24}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5A2A625D-354B-41C4-ABCC-E5495F38792C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0099B786-7296-4F4B-8E4C-5158E95B6CB0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A8F8CE80-6CA2-4B90-994C-DC87E754B5D8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A936A870-BC52-4CF4-B11F-15357FA96D7A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A34CE3D3-3ADB-47E6-8885-DB138AA95B72}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{05B31490-D853-4B21-B3DF-6FC7F10F9673}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DCC7D468-1E06-430C-BF1B-E0CE39CD0039}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{79560140-9A4C-4F4F-8B4B-C209E1CB4C8A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12041,7 +12041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E38F8FB-E7F2-4DEF-934F-B8BB2CD81B97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A00B7DE-8301-4792-9464-2D577810F809}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13220,18 +13220,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C17DF84B-74C7-4BF4-8AE0-6CE0AC4F0DD2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{03838FCD-B5D0-4794-AED4-536CF061A58D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9D7DEC3A-9C8D-40A5-AD46-680AF98FF79F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DA87CEAE-6EF3-4467-B488-A56B45F5CC59}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{640884D3-C5B8-485C-A1DD-93B8C364BC69}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{507FE349-0950-4418-BE05-91DF5966DDD3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DE4A2129-01AA-42C0-8AEB-55DF9C06BD0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{504AFB34-26A7-4F36-AB3A-B66F61628185}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F6B4A3CD-735D-4F3F-A9CC-714D268FE9F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FF69CE73-FB4C-4829-BF18-FCA584972C5D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{23F341AA-3E27-4BFD-B11E-80AA2C2D8B61}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{28465D36-61A9-447C-AC8D-EB6596FDE3ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E239787C-3B59-41A0-A661-4E4F3676663E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{82B94165-BA04-41ED-ABB6-C9F33583794D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{20182353-4B9D-4FC6-8504-0ECA13185D2C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3A04B77C-F463-4359-9AE0-B2391937BDCE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{72A4D1DE-9371-4B97-802B-6FA0F4193E27}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4164603E-174C-419E-B7F9-C2B1660F755C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5425881F-01C3-4772-8BDD-A4A4E10C2375}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8636BFBD-6F1C-4C88-BC6B-D44FB85ADF28}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EC4453AC-07B2-4F4B-B8F7-E0D70244E71A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DCF21334-3ACE-451B-92DB-1CB68B6DE7BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{530CE461-B7F6-46EF-AA7A-D3F7E1649476}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5A103A42-B558-4FDB-A55F-CAE130A916B6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13244,7 +13244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529C31D0-31BF-4D12-8516-141CA448A2B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9697CC99-69DE-4691-A28F-885F64D8BA3D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14423,18 +14423,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{80C0B3D1-1015-4455-B659-79EC5CCA3ED0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{45462C8E-24D1-4AF6-9812-618CB8FAD3BD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{519B5B9B-C038-4D42-99E2-236802F1B8E8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{36A3AA09-95EE-433C-9141-68AA0F55DA6D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BB757157-6174-4F6C-9F2E-8FBAF474E9CD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{713DBF01-9B82-45B6-81C5-54322DE8BE80}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F4650978-BA04-4DF9-98A5-E144EAE31496}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5B9CCBB5-F1C7-44C3-B9EC-100725B5EE32}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{13A29A3D-12E5-43E5-AC1A-C64E5A93F686}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{24DFC1AC-2B9A-4D62-9A60-8564B897B79B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{32F8A289-638A-424E-9FCD-A3A60AEB9C39}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D3ED2BA5-2DD5-4A17-8D35-E16FF0D89074}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FB4D6254-1F94-4317-BE1F-9CA67CA2C483}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4CBB398E-3C86-44B2-B4AB-E24266BB035A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2E8C7BE0-F1A8-48D3-8F1D-29E149386EAC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E93E4F39-B863-44B5-AD73-4C8E18148C1D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{01AECE72-1E2F-483F-9796-9041B0692F19}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3EFDFFA1-0669-4A4D-99B4-EFFC5E98E24B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8F7C70EC-26DD-47D2-B3AB-26FA0D0A9499}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B4CAC3B9-8BFA-489D-A522-40786292F16A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8F55EE67-1385-486D-93D2-F9BDA92A4409}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DFD6B170-D07D-4879-A7AB-B3A0151D61B2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E35F9FA4-B417-4E11-A108-920C1B500034}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{31BCBB12-F14C-4CF0-B857-F3FBC276489F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14447,7 +14447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BEEFD5-8896-4AC6-8076-6F1088886C20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4313F74-214F-4DDF-B2A8-4248F98A19D3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15622,18 +15622,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5DCBB757-0E6D-4947-916B-7B44694EF003}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4472AB4E-519E-4A8F-BDA7-15065245714E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{628A09B1-0725-4C27-AB4B-A80E584C796A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{52D5D94D-6096-461A-A67C-A8ECBE2BC471}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{07DF6046-8F02-4E1C-981C-C3D5D52D219D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CD3EF7CC-8C2C-4C9A-A83F-2CB0D5426AC6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FA7A5F53-BD6D-4E48-B211-2DCD951DF9E6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{66EAAF97-CCF3-4EE6-AB18-2F8E8E0DF764}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8264212A-D09E-40C0-BC79-58DAED5FF9F5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{678E5F65-B3B7-43F9-ABBD-086EDC840E29}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6FD07BAD-DA2D-477F-9AC8-A3E1E2CBD9DE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EEB83853-A322-4A9E-B672-07DC0D022CE5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2465CA5A-6862-4FA3-A77A-75AF38A59608}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C239376E-11A9-4467-983C-8E2799440B9C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BC0DFFAB-FDBB-4587-B4DB-F7E8114A5F8A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E1FAE99C-828E-48F6-BE86-B3ECC02BB846}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C774F988-36CD-4B2B-8B61-9B87CDE27C2D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3CEF8D5C-520C-4E66-ABE1-48F3C450E381}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ADB0D7CA-1DFD-40EC-B135-94E3CCB36324}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7C306B71-49C7-4B82-84E0-CEC432B7EA8E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6D25D3CF-0F20-48DD-A8ED-383B88F0CE97}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6ADBDAE4-0B4C-4E22-AC48-565945AB07B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C6064F9E-6E3F-4D6C-8DD9-E109E9E44BD0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{16936610-614C-4FCD-9A98-2141C39512CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
